--- a/public/Sample_assessments_mcq2.xlsx
+++ b/public/Sample_assessments_mcq2.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slicecarving\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19428" windowHeight="10428"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>Easy</t>
   </si>
@@ -153,12 +158,15 @@
   </si>
   <si>
     <t>B,C</t>
+  </si>
+  <si>
+    <t>question_type_two</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -196,7 +204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -207,6 +215,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -534,7 +548,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -542,25 +556,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.125" customWidth="1"/>
-    <col min="3" max="3" width="24.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.09765625" customWidth="1"/>
+    <col min="3" max="3" width="24.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.09765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.875" customWidth="1"/>
-    <col min="8" max="8" width="24.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.8984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.8984375" customWidth="1"/>
+    <col min="8" max="8" width="24.09765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.69921875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1">
+    <row r="1" spans="1:9" s="3" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -585,8 +600,11 @@
       <c r="H1" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="I1" s="5" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -611,8 +629,11 @@
       <c r="H2" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="I2" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" ht="28.5">
+    <row r="3" spans="1:9" ht="27.6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -637,8 +658,11 @@
       <c r="H3" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="I3" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" ht="28.5">
+    <row r="4" spans="1:9" ht="27.6">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -663,8 +687,11 @@
       <c r="H4" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="I4" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" ht="28.5">
+    <row r="5" spans="1:9" ht="27.6">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -689,8 +716,11 @@
       <c r="H5" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="I5" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" ht="28.5">
+    <row r="6" spans="1:9" ht="27.6">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -714,6 +744,9 @@
       </c>
       <c r="H6" s="2" t="s">
         <v>40</v>
+      </c>
+      <c r="I6" s="6">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/public/Sample_assessments_mcq2.xlsx
+++ b/public/Sample_assessments_mcq2.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slicecarving\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19428" windowHeight="10428"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>Easy</t>
   </si>
@@ -158,15 +153,12 @@
   </si>
   <si>
     <t>B,C</t>
-  </si>
-  <si>
-    <t>question_type_two</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -204,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -215,12 +207,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -548,7 +534,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -556,26 +542,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.09765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.09765625" customWidth="1"/>
-    <col min="3" max="3" width="24.09765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.125" customWidth="1"/>
+    <col min="3" max="3" width="24.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.8984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.8984375" customWidth="1"/>
-    <col min="8" max="8" width="24.09765625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.69921875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.875" customWidth="1"/>
+    <col min="8" max="8" width="24.125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1">
+    <row r="1" spans="1:8" s="3" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -600,11 +585,8 @@
       <c r="H1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>41</v>
-      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -629,11 +611,8 @@
       <c r="H2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="6">
-        <v>2</v>
-      </c>
     </row>
-    <row r="3" spans="1:9" ht="27.6">
+    <row r="3" spans="1:8" ht="28.5">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -658,11 +637,8 @@
       <c r="H3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="6">
-        <v>2</v>
-      </c>
     </row>
-    <row r="4" spans="1:9" ht="27.6">
+    <row r="4" spans="1:8" ht="28.5">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -687,11 +663,8 @@
       <c r="H4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="6">
-        <v>2</v>
-      </c>
     </row>
-    <row r="5" spans="1:9" ht="27.6">
+    <row r="5" spans="1:8" ht="28.5">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -716,11 +689,8 @@
       <c r="H5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="6">
-        <v>2</v>
-      </c>
     </row>
-    <row r="6" spans="1:9" ht="27.6">
+    <row r="6" spans="1:8" ht="28.5">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -744,9 +714,6 @@
       </c>
       <c r="H6" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="I6" s="6">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
